--- a/LR1/1.1.xlsx
+++ b/LR1/1.1.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25721"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aliyas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D1BFC0-5B24-4751-9771-B15FDA1A921D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{D3D1BFC0-5B24-4751-9771-B15FDA1A921D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C90DC910-8512-40D0-9573-837F381687CF}"/>
   <bookViews>
     <workbookView xWindow="9900" yWindow="3420" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -39,26 +50,26 @@
     <t xml:space="preserve"> _</t>
   </si>
   <si>
-    <t>q0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> a,L,q0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  b,L,q0 </t>
-  </si>
-  <si>
-    <t>c,L,q0</t>
-  </si>
-  <si>
-    <t>b,N,!</t>
+    <t>q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a,L,q1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  b,L,q1</t>
+  </si>
+  <si>
+    <t>c,L,q1</t>
+  </si>
+  <si>
+    <t>b,N,q0!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,7 +100,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -375,12 +386,12 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -395,7 +406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>

--- a/LR1/1.1.xlsx
+++ b/LR1/1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aliyas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{D3D1BFC0-5B24-4751-9771-B15FDA1A921D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C90DC910-8512-40D0-9573-837F381687CF}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{D3D1BFC0-5B24-4751-9771-B15FDA1A921D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE44376E-E49A-4259-8777-210F65E52553}"/>
   <bookViews>
     <workbookView xWindow="9900" yWindow="3420" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>a</t>
   </si>
@@ -53,16 +53,28 @@
     <t>q1</t>
   </si>
   <si>
-    <t xml:space="preserve"> a,L,q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  b,L,q1</t>
-  </si>
-  <si>
-    <t>c,L,q1</t>
-  </si>
-  <si>
-    <t>b,N,q0!</t>
+    <t>a,R,q1</t>
+  </si>
+  <si>
+    <t>b,R,q1</t>
+  </si>
+  <si>
+    <t>c,R,q1</t>
+  </si>
+  <si>
+    <t>_,L,q2!</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>a,L,q2</t>
+  </si>
+  <si>
+    <t>c,L,q2</t>
+  </si>
+  <si>
+    <t>b,N,!</t>
   </si>
 </sst>
 </file>
@@ -98,10 +110,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -383,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -423,6 +438,30 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
